--- a/biology/Histoire de la zoologie et de la botanique/J.Gay/J.Gay.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/J.Gay/J.Gay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Étienne Gay, né le 11 octobre 1786 à Nyon (Suisse) et décédé le 16 janvier 1864 à Paris (France), est un botaniste, fonctionnaire, collectionneur et taxonomiste français. Il était le plus célèbre des élèves du botaniste Jean-François-Aimé-Philippe Gaudin avec qui il a commencé à recueillir des plantes à l'âge de 14 ans. Il était marié à Rosalie Nillion, décédée le 11 février 1847[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Étienne Gay, né le 11 octobre 1786 à Nyon (Suisse) et décédé le 16 janvier 1864 à Paris (France), est un botaniste, fonctionnaire, collectionneur et taxonomiste français. Il était le plus célèbre des élèves du botaniste Jean-François-Aimé-Philippe Gaudin avec qui il a commencé à recueillir des plantes à l'âge de 14 ans. Il était marié à Rosalie Nillion, décédée le 11 février 1847.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre botanique Gaya a été nommé en son honneur, comme les espèces suivantes :
 Achyrophorus gayi Sch.Bip.
@@ -571,7 +585,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(la) Jacques Étienne Gay, « Duriaei Iter Asturicum Botanicum : Anno 1835 Susceptum », Annales des sciences naturelles, vol. 2, no 6,‎ 1836, p. 113-137;213-225;340-355 (lire en ligne)</t>
         </is>
